--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H2">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J2">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>6944.112726539411</v>
+        <v>280.153501395743</v>
       </c>
       <c r="R2">
-        <v>6944.112726539411</v>
+        <v>2521.381512561687</v>
       </c>
       <c r="S2">
-        <v>0.229866058886706</v>
+        <v>0.008167527040438357</v>
       </c>
       <c r="T2">
-        <v>0.229866058886706</v>
+        <v>0.008167527040438357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H3">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J3">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>10938.57164189328</v>
+        <v>362.8371209773884</v>
       </c>
       <c r="R3">
-        <v>10938.57164189328</v>
+        <v>3265.534088796495</v>
       </c>
       <c r="S3">
-        <v>0.3620918110332784</v>
+        <v>0.01057806517531768</v>
       </c>
       <c r="T3">
-        <v>0.3620918110332784</v>
+        <v>0.01057806517531768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H4">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J4">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>5897.398882997139</v>
+        <v>227.5898008323609</v>
       </c>
       <c r="R4">
-        <v>5897.398882997139</v>
+        <v>2048.308207491248</v>
       </c>
       <c r="S4">
-        <v>0.1952174298289339</v>
+        <v>0.006635097698816526</v>
       </c>
       <c r="T4">
-        <v>0.1952174298289339</v>
+        <v>0.006635097698816526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>270.956295961006</v>
+        <v>8.970950666666665</v>
       </c>
       <c r="H5">
-        <v>270.956295961006</v>
+        <v>26.912852</v>
       </c>
       <c r="I5">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="J5">
-        <v>0.8895582313062994</v>
+        <v>0.02838798528205506</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>3092.925599592038</v>
+        <v>103.1529277785169</v>
       </c>
       <c r="R5">
-        <v>3092.925599592038</v>
+        <v>928.3763500066519</v>
       </c>
       <c r="S5">
-        <v>0.1023829315573812</v>
+        <v>0.003007295367482505</v>
       </c>
       <c r="T5">
-        <v>0.1023829315573812</v>
+        <v>0.003007295367482505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H6">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J6">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>9.020987794100206</v>
+        <v>8500.965499585682</v>
       </c>
       <c r="R6">
-        <v>9.020987794100206</v>
+        <v>76508.68949627114</v>
       </c>
       <c r="S6">
-        <v>0.000298615387329445</v>
+        <v>0.2478350805604267</v>
       </c>
       <c r="T6">
-        <v>0.000298615387329445</v>
+        <v>0.2478350805604267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H7">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J7">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>14.21012664285842</v>
+        <v>11009.91360818538</v>
       </c>
       <c r="R7">
-        <v>14.21012664285842</v>
+        <v>99089.22247366846</v>
       </c>
       <c r="S7">
-        <v>0.0004703877854964866</v>
+        <v>0.3209803434893309</v>
       </c>
       <c r="T7">
-        <v>0.0004703877854964866</v>
+        <v>0.3209803434893309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H8">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J8">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>7.661218277337746</v>
+        <v>6905.974886248109</v>
       </c>
       <c r="R8">
-        <v>7.661218277337746</v>
+        <v>62153.77397623299</v>
       </c>
       <c r="S8">
-        <v>0.0002536038974355829</v>
+        <v>0.2013351121546136</v>
       </c>
       <c r="T8">
-        <v>0.0002536038974355829</v>
+        <v>0.2013351121546136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.351995069039864</v>
+        <v>272.2141316666667</v>
       </c>
       <c r="H9">
-        <v>0.351995069039864</v>
+        <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994388</v>
       </c>
       <c r="J9">
-        <v>0.001155611128846779</v>
+        <v>0.8614037742994389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>4.01797107574957</v>
+        <v>3130.067894413794</v>
       </c>
       <c r="R9">
-        <v>4.01797107574957</v>
+        <v>28170.61104972415</v>
       </c>
       <c r="S9">
-        <v>0.000133004058585265</v>
+        <v>0.09125323809506766</v>
       </c>
       <c r="T9">
-        <v>0.000133004058585265</v>
+        <v>0.09125323809506768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H10">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I10">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J10">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>853.1149180265245</v>
+        <v>12.67352581481467</v>
       </c>
       <c r="R10">
-        <v>853.1149180265245</v>
+        <v>114.061732333332</v>
       </c>
       <c r="S10">
-        <v>0.02824006056738363</v>
+        <v>0.0003694808891357486</v>
       </c>
       <c r="T10">
-        <v>0.02824006056738363</v>
+        <v>0.0003694808891357486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H11">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I11">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J11">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>1343.8518378217</v>
+        <v>16.41395019648267</v>
       </c>
       <c r="R11">
-        <v>1343.8518378217</v>
+        <v>147.725551768344</v>
       </c>
       <c r="S11">
-        <v>0.04448457821071029</v>
+        <v>0.0004785283118086267</v>
       </c>
       <c r="T11">
-        <v>0.04448457821071029</v>
+        <v>0.0004785283118086266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.288177672303</v>
+        <v>0.405826</v>
       </c>
       <c r="H12">
-        <v>33.288177672303</v>
+        <v>1.217478</v>
       </c>
       <c r="I12">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="J12">
-        <v>0.109286157564854</v>
+        <v>0.001284209772536402</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>724.5214994004126</v>
+        <v>10.29566006374133</v>
       </c>
       <c r="R12">
-        <v>724.5214994004126</v>
+        <v>92.66094057367201</v>
       </c>
       <c r="S12">
-        <v>0.02398332345748888</v>
+        <v>0.0003001571693761683</v>
       </c>
       <c r="T12">
-        <v>0.02398332345748888</v>
+        <v>0.0003001571693761683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.405826</v>
+      </c>
+      <c r="H13">
+        <v>1.217478</v>
+      </c>
+      <c r="I13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="J13">
+        <v>0.001284209772536402</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.49855033333333</v>
+      </c>
+      <c r="N13">
+        <v>34.495651</v>
+      </c>
+      <c r="O13">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="P13">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="Q13">
+        <v>4.666410687575334</v>
+      </c>
+      <c r="R13">
+        <v>41.997696188178</v>
+      </c>
+      <c r="S13">
+        <v>0.0001360434022158583</v>
+      </c>
+      <c r="T13">
+        <v>0.0001360434022158583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H14">
+        <v>103.263979</v>
+      </c>
+      <c r="I14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J14">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.22896466666667</v>
+      </c>
+      <c r="N14">
+        <v>93.686894</v>
+      </c>
+      <c r="O14">
+        <v>0.2877106972998646</v>
+      </c>
+      <c r="P14">
+        <v>0.2877106972998646</v>
+      </c>
+      <c r="Q14">
+        <v>1074.94238384347</v>
+      </c>
+      <c r="R14">
+        <v>9674.481454591225</v>
+      </c>
+      <c r="S14">
+        <v>0.03133860880986373</v>
+      </c>
+      <c r="T14">
+        <v>0.03133860880986373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H15">
+        <v>103.263979</v>
+      </c>
+      <c r="I15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J15">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.44578266666667</v>
+      </c>
+      <c r="N15">
+        <v>121.337348</v>
+      </c>
+      <c r="O15">
+        <v>0.3726247238124506</v>
+      </c>
+      <c r="P15">
+        <v>0.3726247238124505</v>
+      </c>
+      <c r="Q15">
+        <v>1392.19748397641</v>
+      </c>
+      <c r="R15">
+        <v>12529.77735578769</v>
+      </c>
+      <c r="S15">
+        <v>0.04058778683599332</v>
+      </c>
+      <c r="T15">
+        <v>0.04058778683599331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>33.288177672303</v>
-      </c>
-      <c r="H13">
-        <v>33.288177672303</v>
-      </c>
-      <c r="I13">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="J13">
-        <v>0.109286157564854</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.4148504600061</v>
-      </c>
-      <c r="N13">
-        <v>11.4148504600061</v>
-      </c>
-      <c r="O13">
-        <v>0.1150941309452376</v>
-      </c>
-      <c r="P13">
-        <v>0.1150941309452376</v>
-      </c>
-      <c r="Q13">
-        <v>379.9795702154527</v>
-      </c>
-      <c r="R13">
-        <v>379.9795702154527</v>
-      </c>
-      <c r="S13">
-        <v>0.01257819532927117</v>
-      </c>
-      <c r="T13">
-        <v>0.01257819532927117</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H16">
+        <v>103.263979</v>
+      </c>
+      <c r="I16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J16">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.36964133333333</v>
+      </c>
+      <c r="N16">
+        <v>76.108924</v>
+      </c>
+      <c r="O16">
+        <v>0.2337290805561598</v>
+      </c>
+      <c r="P16">
+        <v>0.2337290805561598</v>
+      </c>
+      <c r="Q16">
+        <v>873.2567032942885</v>
+      </c>
+      <c r="R16">
+        <v>7859.310329648595</v>
+      </c>
+      <c r="S16">
+        <v>0.02545871353335344</v>
+      </c>
+      <c r="T16">
+        <v>0.02545871353335344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.42132633333333</v>
+      </c>
+      <c r="H17">
+        <v>103.263979</v>
+      </c>
+      <c r="I17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="J17">
+        <v>0.1089240306459696</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.49855033333333</v>
+      </c>
+      <c r="N17">
+        <v>34.495651</v>
+      </c>
+      <c r="O17">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="P17">
+        <v>0.1059354983315251</v>
+      </c>
+      <c r="Q17">
+        <v>395.7953533839255</v>
+      </c>
+      <c r="R17">
+        <v>3562.158180455329</v>
+      </c>
+      <c r="S17">
+        <v>0.0115389214667591</v>
+      </c>
+      <c r="T17">
+        <v>0.0115389214667591</v>
       </c>
     </row>
   </sheetData>
